--- a/xlsx/乾隆_intext.xlsx
+++ b/xlsx/乾隆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>乾隆</t>
   </si>
@@ -29,7 +29,7 @@
     <t>乾隆帝</t>
   </si>
   <si>
-    <t>政策_政策_美國_乾隆</t>
+    <t>政策_政策_美国_乾隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%96%87%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>滿文字母</t>
+    <t>满文字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E5%AF%AB%E9%AB%94</t>
   </si>
   <si>
-    <t>連寫體</t>
+    <t>连写体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E8%AF%AD</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E6%85%B6</t>
   </si>
   <si>
-    <t>嘉慶</t>
+    <t>嘉庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E5%A4%A9_(%E6%9E%97%E7%88%BD%E6%96%87)</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E6%9B%86_(%E6%A1%83%E5%9C%92%E5%A4%A9%E7%9A%87)</t>
   </si>
   <si>
-    <t>寶曆 (桃園天皇)</t>
+    <t>宝历 (桃园天皇)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%A8%B1%E7%94%BA%E5%A4%A9%E7%9A%87</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%92%8C_(%E5%BE%8C%E6%AB%BB%E7%94%BA%E5%A4%A9%E7%9A%87)</t>
   </si>
   <si>
-    <t>明和 (後櫻町天皇)</t>
+    <t>明和 (后樱町天皇)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%A1%83%E5%9B%AD%E5%A4%A9%E7%9A%87</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%B0%B8_(%E5%BE%8C%E6%A1%83%E5%9C%92%E5%A4%A9%E7%9A%87)</t>
   </si>
   <si>
-    <t>安永 (後桃園天皇)</t>
+    <t>安永 (后桃园天皇)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A0%BC%E5%A4%A9%E7%9A%87</t>
@@ -1037,19 +1037,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%88%88</t>
   </si>
   <si>
-    <t>景興</t>
+    <t>景兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E7%B6%AD%E7%A5%A7</t>
   </si>
   <si>
-    <t>黎維祧</t>
+    <t>黎维祧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E7%B5%B1</t>
   </si>
   <si>
-    <t>昭統</t>
+    <t>昭统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E7%BB%B4%E7%A5%81</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E5%85%89%E7%BA%98</t>
   </si>
   <si>
-    <t>阮光纘</t>
+    <t>阮光缵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8D%E6%AD%A3_(%E5%B9%B4%E8%99%9F)</t>
   </si>
   <si>
-    <t>雍正 (年號)</t>
+    <t>雍正 (年号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%BA%86_(%E5%B9%B4%E5%8F%B7)</t>
@@ -1127,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%B9%B4%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>台灣年號列表</t>
+    <t>台湾年号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%B9%B4%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國年號列表</t>
+    <t>中国年号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E9%87%91</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%85%89_(%E8%83%A1%E5%AE%88%E9%BE%8D)</t>
   </si>
   <si>
-    <t>清光 (胡守龍)</t>
+    <t>清光 (胡守龙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B4_(%E8%92%8B%E5%B0%94%E6%81%82)</t>
@@ -1229,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%85%B6_(%E7%8E%8B%E8%80%80%E7%A5%96)</t>
   </si>
   <si>
-    <t>大慶 (王耀祖)</t>
+    <t>大庆 (王耀祖)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%BE%B7_(%E6%A5%8A%E8%B5%B7%E9%9A%86)</t>
   </si>
   <si>
-    <t>廣德 (楊起隆)</t>
+    <t>广德 (杨起隆)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%85%B4_(%E9%AD%8F%E6%9E%9D%E5%8F%B6)</t>
@@ -1265,9 +1265,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%81%8B_(%E9%99%B3%E5%91%A8%E5%85%A8)</t>
   </si>
   <si>
-    <t>天運 (陳周全)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BA%86_(%E7%8E%8B%E5%A4%A7%E5%8F%94)</t>
   </si>
   <si>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%B8%B1</t>
   </si>
   <si>
-    <t>天縱</t>
+    <t>天纵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%98%8E%E5%9B%BD_(%E5%B9%B4%E5%8F%B7)</t>
@@ -1361,19 +1358,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%B9%B4%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中国年号列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B%E7%B4%80%E5%B9%B4</t>
   </si>
   <si>
-    <t>民國紀年</t>
+    <t>民国纪年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1385,25 +1379,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%B0%E7%81%A3%E5%B9%B4%E8%99%9F</t>
   </si>
   <si>
-    <t>Template talk-台灣年號</t>
+    <t>Template talk-台湾年号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%84%AD%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>明鄭時期</t>
+    <t>明郑时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%9B%86_(%E5%8D%97%E6%98%8E)</t>
   </si>
   <si>
-    <t>永曆 (南明)</t>
+    <t>永历 (南明)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B8%85%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣清治時期</t>
+    <t>台湾清治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%BA%E7%A5%A5</t>
@@ -1415,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B0%91%E4%B8%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>臺灣民主國</t>
+    <t>台湾民主国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%B8%85_(%E5%B9%B4%E5%8F%B7)</t>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9D%96%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>大靖政權</t>
+    <t>大靖政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%AD%A3</t>
@@ -1457,37 +1451,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>臺灣歷史</t>
+    <t>台湾历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8F%B2%E5%89%8D%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣史前時期</t>
+    <t>台湾史前时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%8D%B7%E8%98%AD%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣荷蘭統治時期</t>
+    <t>台湾荷兰统治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A5%BF%E7%8F%AD%E7%89%99%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣西班牙統治時期</t>
+    <t>台湾西班牙统治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B8%85%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣清治時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%88%B0%E5%BE%8C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣戰後時期</t>
+    <t>台湾战后时期</t>
   </si>
 </sst>
 </file>
@@ -7890,7 +7881,7 @@
         <v>415</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>298</v>
       </c>
       <c r="G209" t="n">
         <v>5</v>
@@ -7916,10 +7907,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7945,10 +7936,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7974,10 +7965,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8003,10 +7994,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8032,10 +8023,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8061,10 +8052,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8090,10 +8081,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8119,10 +8110,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8148,10 +8139,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8177,10 +8168,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8206,10 +8197,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8235,10 +8226,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8264,10 +8255,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8293,10 +8284,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8322,10 +8313,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8351,10 +8342,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8380,10 +8371,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8409,10 +8400,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8438,10 +8429,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8467,10 +8458,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -8525,10 +8516,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8554,10 +8545,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8583,10 +8574,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8670,10 +8661,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8699,10 +8690,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8728,10 +8719,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8757,10 +8748,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8786,10 +8777,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8815,10 +8806,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8844,10 +8835,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8873,10 +8864,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8902,10 +8893,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8931,10 +8922,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8960,10 +8951,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8989,10 +8980,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9018,10 +9009,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9047,10 +9038,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9076,10 +9067,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9105,10 +9096,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
